--- a/0308_0314/JaredKeefer.xlsx
+++ b/0308_0314/JaredKeefer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Classes\Capstone\Project\GitRepo\bison-timesheets\0307_0314\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Classes\Capstone\Project\GitRepo\bison-timesheets\0308_0314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB64A7F0-8CF6-4728-B3D4-0E06A886C26E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F4A6F5-D83A-4A55-8617-7EFA81D4A7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1950" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2295" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Total hours per week should be 12-16.</t>
-  </si>
-  <si>
-    <t>Week Total</t>
   </si>
   <si>
     <t>If you are spending more than about 10 minutes per week filling this out, you are probably overthinking it</t>
@@ -506,13 +503,14 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
@@ -522,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -534,10 +532,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -576,34 +574,32 @@
         <v>2</v>
       </c>
       <c r="B5" s="12">
-        <v>44094</v>
+        <v>44263</v>
       </c>
       <c r="C5" s="12">
-        <v>44095</v>
+        <v>44264</v>
       </c>
       <c r="D5" s="12">
-        <v>44096</v>
+        <v>44265</v>
       </c>
       <c r="E5" s="12">
-        <v>44097</v>
+        <v>44266</v>
       </c>
       <c r="F5" s="12">
-        <v>44098</v>
+        <v>44267</v>
       </c>
       <c r="G5" s="12">
-        <v>44099</v>
+        <v>44268</v>
       </c>
       <c r="H5" s="13">
-        <v>44100</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>5</v>
-      </c>
+        <v>44269</v>
+      </c>
+      <c r="I5" s="14"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -620,7 +616,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -637,7 +633,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -658,7 +654,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -677,7 +673,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
@@ -700,7 +696,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -815,7 +811,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,27 +821,27 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
